--- a/Thesis_project/01_data-input/National/KS/UNEMP_EDU.xlsx
+++ b/Thesis_project/01_data-input/National/KS/UNEMP_EDU.xlsx
@@ -1,26 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\eliad\Desktop\Edu\WU Wien\Thesis\Master-Thesis\01_data-input\National\KS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\eliad\Desktop\Edu\WU Wien\Thesis\Master-Thesis\Thesis_project\01_data-input\National\KS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5C6FC357-9D0A-48B7-8A4B-A03DC676C2B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A85D9350-A771-4BC1-9339-3D1A4A91015A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-4710" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="t20" sheetId="2" r:id="rId1"/>
+    <sheet name="Data_clean" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="35">
   <si>
     <t>Unemployed and unemployment rate by educational attainment by sex, age group 15 - 64 by Variables, Kosovo, Year and Gender</t>
   </si>
@@ -104,6 +105,27 @@
   </si>
   <si>
     <t>t20</t>
+  </si>
+  <si>
+    <t>Unit</t>
+  </si>
+  <si>
+    <t>Unemp_edu</t>
+  </si>
+  <si>
+    <t>000s</t>
+  </si>
+  <si>
+    <t>NUTS</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>XK00</t>
+  </si>
+  <si>
+    <t>Kosovo</t>
   </si>
 </sst>
 </file>
@@ -113,7 +135,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -131,6 +153,11 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -155,11 +182,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyBorder="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -464,7 +492,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -768,4 +796,289 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C311867-3CBF-4E3C-BDD3-4844381EC24A}">
+  <dimension ref="A1:L7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="12" width="9.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" t="s">
+        <v>4</v>
+      </c>
+      <c r="I1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J1" t="s">
+        <v>6</v>
+      </c>
+      <c r="K1" t="s">
+        <v>7</v>
+      </c>
+      <c r="L1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E2" s="3">
+        <v>0.98599999999999999</v>
+      </c>
+      <c r="F2" s="3">
+        <v>1.111</v>
+      </c>
+      <c r="G2" s="3">
+        <v>0.70099999999999996</v>
+      </c>
+      <c r="H2" s="3">
+        <v>0.68300000000000005</v>
+      </c>
+      <c r="I2" s="3">
+        <v>1.046</v>
+      </c>
+      <c r="J2" s="3">
+        <v>2.0110000000000001</v>
+      </c>
+      <c r="K2" s="3">
+        <v>2.3439999999999999</v>
+      </c>
+      <c r="L2" s="3">
+        <v>2.4849999999999999</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E3" s="3">
+        <v>25.068000000000001</v>
+      </c>
+      <c r="F3" s="3">
+        <v>30.167999999999999</v>
+      </c>
+      <c r="G3" s="3">
+        <v>32.725999999999999</v>
+      </c>
+      <c r="H3" s="3">
+        <v>28.957000000000001</v>
+      </c>
+      <c r="I3" s="3">
+        <v>38.898000000000003</v>
+      </c>
+      <c r="J3" s="3">
+        <v>49.100999999999999</v>
+      </c>
+      <c r="K3" s="3">
+        <v>43.783999999999999</v>
+      </c>
+      <c r="L3" s="3">
+        <v>40.770000000000003</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E4" s="3">
+        <v>53.603000000000002</v>
+      </c>
+      <c r="F4" s="3">
+        <v>57.082000000000001</v>
+      </c>
+      <c r="G4" s="3">
+        <v>61.795000000000002</v>
+      </c>
+      <c r="H4" s="3">
+        <v>54.220999999999997</v>
+      </c>
+      <c r="I4" s="3">
+        <v>60.207999999999998</v>
+      </c>
+      <c r="J4" s="3">
+        <v>70.39</v>
+      </c>
+      <c r="K4" s="3">
+        <v>54.762</v>
+      </c>
+      <c r="L4" s="3">
+        <v>50.267000000000003</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>33</v>
+      </c>
+      <c r="B5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E5" s="3">
+        <v>17.198</v>
+      </c>
+      <c r="F5" s="3">
+        <v>33.387</v>
+      </c>
+      <c r="G5" s="3">
+        <v>29.925999999999998</v>
+      </c>
+      <c r="H5" s="3">
+        <v>23.427</v>
+      </c>
+      <c r="I5" s="3">
+        <v>26.526</v>
+      </c>
+      <c r="J5" s="3">
+        <v>35.557000000000002</v>
+      </c>
+      <c r="K5" s="3">
+        <v>28.611999999999998</v>
+      </c>
+      <c r="L5" s="3">
+        <v>27.79</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>33</v>
+      </c>
+      <c r="B6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E6" s="3">
+        <v>28.45</v>
+      </c>
+      <c r="F6" s="3">
+        <v>23.224</v>
+      </c>
+      <c r="G6" s="3">
+        <v>31.436</v>
+      </c>
+      <c r="H6" s="3">
+        <v>18.783000000000001</v>
+      </c>
+      <c r="I6" s="3">
+        <v>19.097999999999999</v>
+      </c>
+      <c r="J6" s="3">
+        <v>19.684000000000001</v>
+      </c>
+      <c r="K6" s="3">
+        <v>15.327999999999999</v>
+      </c>
+      <c r="L6" s="3">
+        <v>14.387</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>33</v>
+      </c>
+      <c r="B7" t="s">
+        <v>34</v>
+      </c>
+      <c r="C7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E7" s="3">
+        <v>125.30500000000001</v>
+      </c>
+      <c r="F7" s="3">
+        <v>144.97200000000001</v>
+      </c>
+      <c r="G7" s="3">
+        <v>156.584</v>
+      </c>
+      <c r="H7" s="3">
+        <v>126.07</v>
+      </c>
+      <c r="I7" s="3">
+        <v>145.77600000000001</v>
+      </c>
+      <c r="J7" s="3">
+        <v>176.74299999999999</v>
+      </c>
+      <c r="K7" s="3">
+        <v>144.82900000000001</v>
+      </c>
+      <c r="L7" s="3">
+        <v>135.69999999999999</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
+</worksheet>
 </file>